--- a/Excel_sample/LIFee.xlsx
+++ b/Excel_sample/LIFee.xlsx
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,20 +113,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,15 +129,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -795,56 +777,6 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
